--- a/20170414-megaregions/builds/development/data/maindata.xlsx
+++ b/20170414-megaregions/builds/development/data/maindata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
   <si>
     <r>
       <t>Arizona Sun Corridor</t>
@@ -2875,14 +2875,56 @@
     <t>pct</t>
   </si>
   <si>
-    <t>Source: Darmouth College, U.S. Census Bureau</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>populations</t>
+  </si>
+  <si>
+    <t>commuter_flows</t>
+  </si>
+  <si>
+    <t>commutes</t>
+  </si>
+  <si>
+    <t>megaregions</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Commuter flows into the Twin Cities by metro of origin</t>
+  </si>
+  <si>
+    <t>Percent of commuters coming into Twin Cities by metro of origin</t>
+  </si>
+  <si>
+    <t>U.S. megaregions by location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Economic Geography of the United States: From Commutes to Megaregions </t>
+  </si>
+  <si>
+    <t>Source: Regional Plan Association, An Economic Geography of the United States: From Commutes to Megaregions , U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Regional Plan Association</t>
+  </si>
+  <si>
+    <t>America 2050 megaregion population projections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2949,6 +2991,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2982,12 +3032,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2999,9 +3050,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5847,26 +5900,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20170414-megaregions/builds/development/data/maindata.xlsx
+++ b/20170414-megaregions/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="populations" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="commutes" sheetId="4" r:id="rId3"/>
     <sheet name="megaregions" sheetId="3" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -5902,7 +5903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5986,4 +5987,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>